--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saikrishnan/IdeaProjects/framework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEF4FB7-E2F1-5E4F-AB53-0EC592243997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C9BAF-5BBA-084E-AF1C-30CB28B471D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{30B39DBF-4A97-9B4E-BC98-950E36C9B09F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>username</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>YWRtaW4xMjM=</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
 </sst>
 </file>
@@ -536,69 +545,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51227055-D30B-7A48-8BE6-30A0FE23CEA4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
     </row>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saikrishnan/IdeaProjects/framework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13C9BAF-5BBA-084E-AF1C-30CB28B471D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73121B1B-649F-C24C-8477-8D2BE10B68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{30B39DBF-4A97-9B4E-BC98-950E36C9B09F}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saikrishnan/IdeaProjects/framework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73121B1B-649F-C24C-8477-8D2BE10B68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7318F-E037-E140-9450-069E35882CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{30B39DBF-4A97-9B4E-BC98-950E36C9B09F}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saikrishnan/IdeaProjects/framework/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7318F-E037-E140-9450-069E35882CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9420F7A-3A68-9642-8307-606116C57B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{30B39DBF-4A97-9B4E-BC98-950E36C9B09F}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{30B39DBF-4A97-9B4E-BC98-950E36C9B09F}"/>
   </bookViews>
   <sheets>
     <sheet name="runmanager" sheetId="2" r:id="rId1"/>
@@ -473,7 +473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CB1754-DA78-E44B-B6F1-97F4B2283B59}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51227055-D30B-7A48-8BE6-30A0FE23CEA4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +612,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
